--- a/S&P/snp.xlsx
+++ b/S&P/snp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nischal\Documents\GitHub\IStrat\S&amp;P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE849E68-21AF-410E-ACE2-FD6B45268EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D65E70-18FD-4187-95DE-92E2F86E0DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5844" yWindow="2844" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
